--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="DOA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -74,13 +74,25 @@
   </si>
   <si>
     <t>Servicing(Customer Care)</t>
+  </si>
+  <si>
+    <t>08.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sending Date</t>
+  </si>
+  <si>
+    <t>Receiving Date</t>
+  </si>
+  <si>
+    <t>83131000002096</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +128,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,12 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -166,14 +189,27 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
@@ -472,43 +508,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -518,13 +554,15 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>359011482362260</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -534,13 +572,15 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>356982501150204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,13 +590,15 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>351805991483923</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,13 +608,15 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>351805992803087</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -582,13 +626,15 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>359600102262742</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,13 +644,15 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>359600102262668</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,13 +662,15 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>359600102262387</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,13 +680,15 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>359600102262601</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,14 +698,16 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>350488472430423</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -662,14 +716,16 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>350942911383205</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -678,13 +734,13 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>359600102262569</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,9 +748,9 @@
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,9 +758,9 @@
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,9 +768,9 @@
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,9 +778,9 @@
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,9 +788,9 @@
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,9 +798,9 @@
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,9 +808,9 @@
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,9 +818,9 @@
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,9 +828,9 @@
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
     </row>
   </sheetData>
@@ -785,6 +841,9 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup scale="113" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -792,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,24 +866,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -836,7 +895,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -851,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -861,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -871,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -881,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -891,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -901,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -911,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -921,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -931,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -941,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -951,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -961,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -971,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -981,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -991,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1001,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1011,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1021,7 +1080,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1031,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1041,7 +1100,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DOA" sheetId="1" r:id="rId1"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -43,9 +44,6 @@
     <t xml:space="preserve"> Send Date</t>
   </si>
   <si>
-    <t>DOA</t>
-  </si>
-  <si>
     <t>B67</t>
   </si>
   <si>
@@ -86,6 +84,21 @@
   </si>
   <si>
     <t>83131000002096</t>
+  </si>
+  <si>
+    <t>Z40</t>
+  </si>
+  <si>
+    <t>Atom2</t>
+  </si>
+  <si>
+    <t>12.08.2021</t>
+  </si>
+  <si>
+    <t>11.08.2021</t>
+  </si>
+  <si>
+    <t>DOA Details</t>
   </si>
 </sst>
 </file>
@@ -137,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +207,16 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,15 +230,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N9:N10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,43 +533,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -552,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>359011482362260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -570,34 +595,36 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>356982501150204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>351805991483923</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -606,34 +633,36 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>351805992803087</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>359600102262742</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -642,16 +671,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>359600102262668</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -660,16 +689,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>359600102262387</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -678,16 +707,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>359600102262601</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -696,17 +725,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>350488472430423</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,17 +743,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>350942911383205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,45 +761,63 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>359600102262569</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>359600102262346</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>359312601222561</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>357858821524741</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -780,7 +827,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +837,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,7 +847,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,7 +857,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,7 +867,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,7 +877,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
     </row>
   </sheetData>
@@ -848,6 +895,386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>359011482362260</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>356982501150204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>351805991483923</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>351805992803087</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>359600102262742</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>359600102262668</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>359600102262387</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>359600102262601</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>350488472430423</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>350942911383205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>359600102262569</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13">
+        <v>359600102262346</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13">
+        <v>359312601222561</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13">
+        <v>357858821524741</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E11" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -866,24 +1293,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -899,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>DOA Details</t>
+  </si>
+  <si>
+    <t>14.08.2021</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,12 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,12 +227,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +913,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -922,7 +923,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -932,7 +933,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -952,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -970,7 +971,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -990,7 +991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1008,7 +1009,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1044,9 +1045,11 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1100,7 +1103,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1152,7 +1155,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -1165,10 +1168,11 @@
       <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -1181,10 +1185,11 @@
       <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -1197,10 +1202,11 @@
       <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1220,7 +1226,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1240,7 +1246,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1250,7 +1256,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>14.08.2021</t>
+  </si>
+  <si>
+    <t>18.08.2021</t>
   </si>
 </sst>
 </file>
@@ -215,6 +218,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,16 +240,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,24 +537,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -899,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,26 +917,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -969,7 +972,9 @@
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1007,7 +1012,9 @@
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1065,7 +1072,9 @@
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1083,7 +1092,9 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1101,7 +1112,9 @@
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1156,55 +1169,55 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>359600102262346</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>359312601222561</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>357858821524741</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1299,24 +1312,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>18.08.2021</t>
+  </si>
+  <si>
+    <t>22.08.2021</t>
   </si>
 </sst>
 </file>
@@ -902,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1202,9 @@
         <v>23</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -101,13 +101,25 @@
     <t>DOA Details</t>
   </si>
   <si>
-    <t>14.08.2021</t>
-  </si>
-  <si>
-    <t>18.08.2021</t>
-  </si>
-  <si>
     <t>22.08.2021</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>23.08.2021</t>
+  </si>
+  <si>
+    <t>Komola Super Market, Alaipur, Natore</t>
+  </si>
+  <si>
+    <t>L46(D41)</t>
+  </si>
+  <si>
+    <t>BL120</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,11 +214,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,10 +286,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,24 +613,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -903,10 +976,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,323 +996,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>359011482362260</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>356982501150204</v>
+        <v>350488472430423</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>351805991483923</v>
+        <v>350942911383205</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>351805992803087</v>
+        <v>359600102262569</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
-        <v>359600102262742</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C8" s="9">
+        <v>359600102262346</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>359600102262668</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>359312601222561</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>357858821524741</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13">
+        <v>356377119478784</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13">
+        <v>357398294236200</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13">
+        <v>357599102671385</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <v>359600102262387</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13">
+        <v>354340119579201</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>359600102262601</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>350488472430423</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>350942911383205</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>359600102262569</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9">
-        <v>359600102262346</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9">
-        <v>359312601222561</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
-        <v>357858821524741</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -1246,7 +1266,7 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -1256,7 +1276,7 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -1266,7 +1286,7 @@
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
@@ -1276,7 +1296,7 @@
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
@@ -1284,17 +1304,28 @@
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
     </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="A4:F21">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4:E11" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1317,24 +1348,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>BL120</t>
+  </si>
+  <si>
+    <t>24.08.2021</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +302,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,24 +631,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -981,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,34 +1014,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1082,20 +1100,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="16">
         <v>359600102262569</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1111,7 +1129,9 @@
         <v>23</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1145,7 +1165,9 @@
         <v>23</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -1348,24 +1370,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>24.08.2021</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -999,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1186,9 @@
         <v>29</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1199,7 +1204,9 @@
         <v>29</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1215,7 +1222,9 @@
         <v>29</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DOA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Our" sheetId="3" r:id="rId2"/>
     <sheet name="Servicing" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -35,97 +35,73 @@
     <t>Received Date</t>
   </si>
   <si>
-    <t>CN Number</t>
-  </si>
-  <si>
     <t>Imei Number</t>
   </si>
   <si>
     <t xml:space="preserve"> Send Date</t>
   </si>
   <si>
-    <t>B67</t>
-  </si>
-  <si>
     <t>D47</t>
   </si>
   <si>
     <t>L270</t>
   </si>
   <si>
-    <t>Z12</t>
-  </si>
-  <si>
-    <t>05.08.2021</t>
-  </si>
-  <si>
-    <t>T92</t>
-  </si>
-  <si>
-    <t>D48</t>
-  </si>
-  <si>
-    <t>29.07.2021</t>
-  </si>
-  <si>
     <t>LSO Number</t>
   </si>
   <si>
     <t>Servicing(Customer Care)</t>
   </si>
   <si>
-    <t>08.08.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sending Date</t>
   </si>
   <si>
     <t>Receiving Date</t>
   </si>
   <si>
-    <t>83131000002096</t>
-  </si>
-  <si>
-    <t>Z40</t>
-  </si>
-  <si>
-    <t>Atom2</t>
-  </si>
-  <si>
-    <t>12.08.2021</t>
-  </si>
-  <si>
-    <t>11.08.2021</t>
-  </si>
-  <si>
     <t>DOA Details</t>
   </si>
   <si>
-    <t>22.08.2021</t>
-  </si>
-  <si>
     <t>L42</t>
   </si>
   <si>
-    <t>L46</t>
-  </si>
-  <si>
-    <t>23.08.2021</t>
-  </si>
-  <si>
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>L46(D41)</t>
-  </si>
-  <si>
-    <t>BL120</t>
-  </si>
-  <si>
-    <t>24.08.2021</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t>Probem Details</t>
+  </si>
+  <si>
+    <t>Display White</t>
+  </si>
+  <si>
+    <t>l270</t>
+  </si>
+  <si>
+    <t>Sim Not Supported</t>
+  </si>
+  <si>
+    <t>Speaker Problem</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>1 Slot Sim Not Supported</t>
+  </si>
+  <si>
+    <t>Z18</t>
+  </si>
+  <si>
+    <t>Phone off//Not Charging</t>
+  </si>
+  <si>
+    <t>Phone off</t>
+  </si>
+  <si>
+    <t>1 Sim Slot  Not Supported</t>
   </si>
 </sst>
 </file>
@@ -177,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,18 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,7 +245,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,23 +260,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,381 +567,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>350954041421466</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>356982502853681</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>351805992618808</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>351805993112322</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>351805993003745</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356377118938705</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>352371474012548</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>353133151707702</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>359011482362260</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>356982501150204</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>351805991483923</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>351805992803087</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>359600102262742</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>359600102262668</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>359600102262387</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>359600102262601</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>350488472430423</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>350942911383205</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>359600102262569</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>359600102262346</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3">
-        <v>359312601222561</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3">
-        <v>357858821524741</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="113" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4:E11" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup scale="113" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1002,298 +893,287 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>350954041421466</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>356982502853681</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>351805992618808</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>351805993112322</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>351805993003745</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356377118938705</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>352371474012548</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>353133151707702</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>350488472430423</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>350942911383205</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16">
-        <v>359600102262569</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>359600102262346</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9">
-        <v>359312601222561</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9">
-        <v>357858821524741</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="13">
-        <v>356377119478784</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="13">
-        <v>357398294236200</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13">
-        <v>357599102671385</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="13">
-        <v>354340119579201</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1379,24 +1259,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1406,13 +1286,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>1 Sim Slot  Not Supported</t>
+  </si>
+  <si>
+    <t>14.09.2021</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +977,9 @@
       <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DOA" sheetId="1" r:id="rId1"/>
-    <sheet name="Our" sheetId="3" r:id="rId2"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId3"/>
+    <sheet name="Print" sheetId="1" r:id="rId1"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId2"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId3"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -105,6 +106,45 @@
   </si>
   <si>
     <t>14.09.2021</t>
+  </si>
+  <si>
+    <t>12.09.2021</t>
+  </si>
+  <si>
+    <t>16.09.2021</t>
+  </si>
+  <si>
+    <t>15.09.2021</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Sim  &amp; not working menu </t>
+  </si>
+  <si>
+    <t>BL120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Button </t>
+  </si>
+  <si>
+    <t>Sim  Not Supported</t>
+  </si>
+  <si>
+    <t>Display Line</t>
+  </si>
+  <si>
+    <t>B68</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>Back &amp; Middle button not working</t>
   </si>
 </sst>
 </file>
@@ -573,7 +613,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +937,366 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K7" sqref="J7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>351805993003844</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357599103409025</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352451261162563</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8">
+        <v>354340118739343</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8">
+        <v>352451261343288</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8">
+        <v>352451261347867</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354340118815903</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8">
+        <v>357330671376622</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8">
+        <v>355645521673460</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:F21">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1396,9 @@
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1087,7 +1488,9 @@
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1105,7 +1508,9 @@
       <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1231,21 +1636,16 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A4:F21">
-    <sortCondition ref="A4"/>
-  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="J7:K7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -936,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Back &amp; Middle button not working</t>
+  </si>
+  <si>
+    <t>24.09.2021</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +337,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,25 +1035,27 @@
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="20">
         <v>357599103409025</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1053,7 +1073,9 @@
       <c r="E7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1071,7 +1093,9 @@
       <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1089,7 +1113,9 @@
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1107,7 +1133,9 @@
       <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1125,7 +1153,9 @@
       <c r="E11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1143,7 +1173,9 @@
       <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1161,7 +1193,9 @@
       <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1295,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,73 +1438,73 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="20">
         <v>351805992618808</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="20">
         <v>351805993112322</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="20">
         <v>351805993003745</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="20">
         <v>356377118938705</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId2"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId3"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId4"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId2"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId3"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId4"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -90,9 +91,6 @@
     <t>D82</t>
   </si>
   <si>
-    <t>1 Slot Sim Not Supported</t>
-  </si>
-  <si>
     <t>Z18</t>
   </si>
   <si>
@@ -148,6 +146,39 @@
   </si>
   <si>
     <t>24.09.2021</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>27.09.2021</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Display White + Hang</t>
+  </si>
+  <si>
+    <t>L140</t>
+  </si>
+  <si>
+    <t>L135</t>
+  </si>
+  <si>
+    <t>BL99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone off </t>
+  </si>
+  <si>
+    <t>Button Not working</t>
+  </si>
+  <si>
+    <t>Battery Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -318,6 +349,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,15 +377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,34 +678,34 @@
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -688,143 +722,146 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8">
-        <v>350954041421466</v>
+        <v>355645522432544</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>356982502853681</v>
+        <v>354150812716921</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8">
-        <v>351805992618808</v>
+        <v>355482202931847</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
-        <v>351805993112322</v>
+        <v>351251781555689</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
-        <v>351805993003745</v>
+        <v>356377117861841</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8">
-        <v>356377118938705</v>
+        <v>357398296569301</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8">
-        <v>352371474012548</v>
+        <v>357398296540286</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
-        <v>353133151707702</v>
+        <v>353133151770841</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -833,7 +870,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -842,7 +879,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -851,7 +888,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -936,6 +973,9 @@
       <c r="E24" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="B5:E13">
+    <sortCondition ref="B5"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -943,19 +983,16 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="113" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,34 +1007,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1024,177 +1061,529 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8">
-        <v>351805993003844</v>
+        <v>355645522432544</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="20">
-        <v>357599103409025</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="19"/>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812716921</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8">
-        <v>352451261162563</v>
+        <v>355482202931847</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
-        <v>354340118739343</v>
+        <v>351251781555689</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
-        <v>352451261343288</v>
+        <v>356377117861841</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8">
-        <v>352451261347867</v>
+        <v>357398296569301</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8">
-        <v>354340118815903</v>
+        <v>357398296540286</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
-        <v>357330671376622</v>
+        <v>353133151770841</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:E13">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>351805993003844</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13">
+        <v>357599103409025</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352451261162563</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <v>354340118739343</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>352451261343288</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>352451261347867</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354340118815903</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8">
+        <v>357330671376622</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8">
         <v>355645521673460</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -1345,34 +1734,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1411,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,83 +1817,83 @@
         <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>351805992618808</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <v>351805993112322</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>351805993003745</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="13">
         <v>356377118938705</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1520,10 +1909,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
         <v>353133151707702</v>
@@ -1540,10 +1929,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -1698,24 +2087,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId2"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId3"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId4"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId5"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId2"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId3"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId4"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId5"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -179,6 +180,27 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>29.09.2021</t>
+  </si>
+  <si>
+    <t>28.09.2021</t>
+  </si>
+  <si>
+    <t>Z35(3+32)</t>
+  </si>
+  <si>
+    <t>Sim Emergency</t>
+  </si>
+  <si>
+    <t>Display Problem</t>
+  </si>
+  <si>
+    <t>Phone Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -659,13 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,16 +746,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8">
-        <v>355645522432544</v>
+        <v>354580881582301</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,16 +763,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8">
-        <v>354150812716921</v>
+        <v>357559441035924</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,16 +780,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>355482202931847</v>
+        <v>354150812182967</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>51</v>
@@ -781,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
-        <v>351251781555689</v>
+        <v>352451261508641</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,16 +817,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>356377117861841</v>
+        <v>357599103503983</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8">
-        <v>357398296569301</v>
+        <v>350053611344164</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,31 +854,23 @@
         <v>41</v>
       </c>
       <c r="C11" s="8">
-        <v>357398296540286</v>
+        <v>357398292790646</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>353133151770841</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -989,10 +1000,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8">
+        <v>352451261508641</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>357559441035924</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>354150812182967</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599103503983</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8">
+        <v>350053611344164</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357398292790646</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354580881582301</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F11">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,15 +1692,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1800,9 @@
       <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1714,12 +2072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="H9:I9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +2197,9 @@
       <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1857,7 +2217,9 @@
       <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1875,7 +2237,9 @@
       <c r="E9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1893,7 +2257,9 @@
       <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2068,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1006,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1341,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1347,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1431,9 @@
       <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1464,7 +1469,9 @@
       <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1500,7 +1507,9 @@
       <c r="E9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1688,7 +1697,8 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1122,9 @@
       <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1140,7 +1142,9 @@
       <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1197,7 +1201,9 @@
       <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1350,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId2"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId3"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId4"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId5"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId6"/>
+    <sheet name="07.10.2021" sheetId="7" r:id="rId2"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId3"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId4"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId5"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId6"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -1005,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1075,291 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1352,12 +1638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2088,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2450,7 +2736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="07.10.2021" sheetId="7" r:id="rId2"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId2"/>
     <sheet name="29.09.2021" sheetId="6" r:id="rId3"/>
     <sheet name="27.09.2021" sheetId="5" r:id="rId4"/>
     <sheet name="16-09-2021" sheetId="3" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="68">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -180,9 +180,6 @@
     <t>Battery Problem</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>29.09.2021</t>
   </si>
   <si>
@@ -205,6 +202,33 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>10.10.2021</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Sim not Supported</t>
+  </si>
+  <si>
+    <t>Insert sim to Hang</t>
+  </si>
+  <si>
+    <t>Phone off + Display white</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>Z40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery </t>
   </si>
 </sst>
 </file>
@@ -256,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +734,7 @@
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -710,7 +743,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -719,7 +752,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -728,7 +761,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -745,41 +778,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8">
-        <v>354580881582301</v>
+        <v>354150811925127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>357559441035924</v>
+        <v>354150812574585</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -787,123 +820,152 @@
         <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>354150812182967</v>
+        <v>352611792184200</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8">
-        <v>352451261508641</v>
+        <v>357330671424067</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8">
-        <v>357599103503983</v>
+        <v>357330671462703</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8">
-        <v>350053611344164</v>
+        <v>357330672605425</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8">
-        <v>357398292790646</v>
+        <v>357330671873420</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -911,9 +973,8 @@
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -921,9 +982,8 @@
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -931,9 +991,8 @@
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -942,7 +1001,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -951,7 +1010,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -960,7 +1019,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -969,7 +1028,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -978,7 +1037,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1006,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,113 +1134,201 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354150811925127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812574585</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792184200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357330671424067</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357330671462703</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357330672605425</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="N10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330671873420</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,56 +1507,56 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>352451261508641</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="D5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>357559441035924</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8">
         <v>354150812182967</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,52 +1570,52 @@
         <v>357599103503983</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="13">
         <v>350053611344164</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>357398292790646</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="N10" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="N10" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,19 +1623,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8">
         <v>354580881582301</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1790,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,26 +1871,26 @@
         <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>354150812716921</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1762,26 +1909,26 @@
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="13">
         <v>351251781555689</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1800,62 +1947,62 @@
         <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>357398296569301</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>357398296540286</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="13">
         <v>353133151770841</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -2103,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,7 +2647,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="68">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -414,6 +414,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,9 +436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,31 +735,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1081,34 +1081,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1134,7 +1134,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="8">
@@ -1152,7 +1152,7 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8">
@@ -1170,7 +1170,7 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8">
@@ -1188,7 +1188,7 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="8">
@@ -1206,7 +1206,7 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="8">
@@ -1224,7 +1224,7 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="8">
@@ -1245,7 +1245,7 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="8">
@@ -1263,7 +1263,7 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="8">
@@ -1281,7 +1281,7 @@
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="8">
@@ -1299,7 +1299,7 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="8">
@@ -1317,7 +1317,7 @@
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="8">
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,34 +1454,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1507,7 +1507,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="13">
@@ -1525,7 +1525,7 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="13">
@@ -1543,7 +1543,7 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8">
@@ -1583,7 +1583,7 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="13">
@@ -1601,7 +1601,7 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="13">
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,34 +1805,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1878,19 +1878,19 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>354150812716921</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1916,19 +1916,21 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <v>351251781555689</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1954,55 +1956,57 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>357398296569301</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>357398296540286</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>353133151770841</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -2164,34 +2168,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2541,34 +2545,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2902,24 +2906,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1263,7 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="8">
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="13">
@@ -1543,7 +1543,7 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8">
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1878,7 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8">
@@ -1956,7 +1956,7 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8">
@@ -1994,7 +1994,7 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="8">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +415,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,31 +741,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1066,7 +1072,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,34 +1087,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1134,7 +1140,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="8">
@@ -1146,13 +1152,15 @@
       <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8">
@@ -1164,13 +1172,15 @@
       <c r="E6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8">
@@ -1182,13 +1192,15 @@
       <c r="E7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="8">
@@ -1200,13 +1212,15 @@
       <c r="E8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="8">
@@ -1218,25 +1232,27 @@
       <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>357330672605425</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12"/>
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1245,7 +1261,7 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="8">
@@ -1257,7 +1273,9 @@
       <c r="E11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1275,49 +1293,51 @@
       <c r="E12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="13">
         <v>354430151105781</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="13">
         <v>355963113682249</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="8">
@@ -1329,7 +1349,9 @@
       <c r="E15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -1439,7 +1461,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,34 +1476,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1510,16 +1532,18 @@
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>352451261508641</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1528,16 +1552,16 @@
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <v>357559441035924</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1586,34 +1610,37 @@
       <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="16">
         <v>350053611344164</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>357398292790646</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1790,7 +1817,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,34 +1832,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1890,7 +1917,9 @@
       <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1968,7 +1997,9 @@
       <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2006,7 +2037,9 @@
       <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -2168,34 +2201,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2545,34 +2578,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2906,24 +2939,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="68">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,19 +1240,21 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>357330672605425</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1301,19 +1303,21 @@
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>354430151105781</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1460,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1821,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId2"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId3"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId4"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId5"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId6"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId7"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId2"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId3"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId4"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId5"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId6"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId7"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -229,6 +230,27 @@
   </si>
   <si>
     <t xml:space="preserve">Battery </t>
+  </si>
+  <si>
+    <t>i69</t>
+  </si>
+  <si>
+    <t>20.10.2021</t>
+  </si>
+  <si>
+    <t>Charge Not Storage</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>BL96</t>
+  </si>
+  <si>
+    <t>Ringer</t>
+  </si>
+  <si>
+    <t>No Light in Button</t>
   </si>
 </sst>
 </file>
@@ -726,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8">
-        <v>354150811925127</v>
+        <v>350339281038149</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>60</v>
@@ -806,16 +828,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
-        <v>354150812574585</v>
+        <v>356377118228586</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8">
-        <v>352611792184200</v>
+        <v>357559441273442</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,16 +862,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
-        <v>357330671424067</v>
+        <v>356377117976904</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,13 +879,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>357330671462703</v>
+        <v>357599102702461</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>60</v>
@@ -874,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>357330672605425</v>
+        <v>357599103979423</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -891,16 +913,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8">
-        <v>357330671873420</v>
+        <v>354340118375825</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,16 +930,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
-        <v>352451261522345</v>
+        <v>355963113712186</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,16 +947,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8">
-        <v>354430151105781</v>
+        <v>352611791656869</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,16 +964,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8">
-        <v>355963113682249</v>
+        <v>351251781784727</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,16 +981,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8">
-        <v>359312601221944</v>
+        <v>351251781787241</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,400 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354150811925127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
-        <v>354150812574585</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>352611792184200</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357330671424067</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357330671462703</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357330672605425</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330671873420</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>352451261522345</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8">
-        <v>354430151105781</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>355963113682249</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="8">
-        <v>359312601221944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1534,6 +1163,772 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8">
+        <v>350339281038149</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>356377118228586</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8">
+        <v>357559441273442</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>356377117976904</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357599102702461</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357599103979423</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354340118375825</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8">
+        <v>355963113712186</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="8">
+        <v>352611791656869</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8">
+        <v>351251781784727</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8">
+        <v>351251781787241</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354150811925127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150812574585</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611792184200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357330671424067</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357330671462703</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357330672605425</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330671873420</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>352451261522345</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354430151105781</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13">
+        <v>355963113682249</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359312601221944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="8">
@@ -1816,11 +2211,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2182,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2562,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2924,7 +3319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="76">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>No Light in Button</t>
+  </si>
+  <si>
+    <t>25.10.2021</t>
   </si>
 </sst>
 </file>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1177,9 @@
       <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1192,7 +1197,9 @@
       <c r="E6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1228,7 +1235,9 @@
       <c r="E8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1246,7 +1255,9 @@
       <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1264,7 +1275,9 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1285,7 +1298,9 @@
       <c r="E11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1321,7 +1336,9 @@
       <c r="E13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1357,7 +1374,9 @@
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -1466,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,8 +1889,9 @@
     <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="6" max="6" width="28.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1980,12 @@
       <c r="E6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16">
+        <v>354340117595944</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2216,7 +2241,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2610,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,7 +2987,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="79">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>25.10.2021</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>26.10.2021 Adjusted</t>
+  </si>
+  <si>
+    <t>26.10.2021</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,12 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +470,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,31 +772,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1096,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,34 +1118,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1217,7 +1223,12 @@
       <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1306,19 +1317,19 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="13">
         <v>355963113712186</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1344,19 +1355,19 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="13">
         <v>351251781784727</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1485,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,34 +1512,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1878,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,34 +1906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1968,24 +1979,25 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <v>357559441035924</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="8">
         <v>354340117595944</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2006,6 +2018,8 @@
       <c r="F7" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2026,24 +2040,30 @@
       <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="8">
         <v>350053611344164</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2065,6 +2085,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
@@ -2256,34 +2277,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2625,34 +2646,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3002,34 +3023,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3363,24 +3384,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>26.10.2021</t>
+  </si>
+  <si>
+    <t>27.10.2021</t>
   </si>
 </sst>
 </file>
@@ -451,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,9 +476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +761,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,31 +775,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,34 +1121,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1226,7 +1229,7 @@
       <c r="F7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1355,19 +1358,21 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <v>351251781784727</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1496,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1512,34 +1517,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1906,34 +1911,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2277,34 +2282,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2646,34 +2651,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3023,34 +3028,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3384,24 +3389,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="81">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>27.10.2021</t>
+  </si>
+  <si>
+    <t>01.11.2021</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,19 +1323,21 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>355963113712186</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1501,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/2021/Others/DOA+Servicing  Sheet.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId2"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId3"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId4"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId5"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId6"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId7"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId8"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId2"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId3"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId4"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId5"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId6"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId7"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId8"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="90">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -269,6 +270,33 @@
   </si>
   <si>
     <t>01.11.2021</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>07.11.2021</t>
+  </si>
+  <si>
+    <t>Network Problem</t>
+  </si>
+  <si>
+    <t>L95</t>
+  </si>
+  <si>
+    <t>L260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display Line</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>Network &amp; Hang Problem</t>
   </si>
 </sst>
 </file>
@@ -320,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +364,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,9 +474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -763,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,31 +797,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -826,16 +845,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8">
-        <v>350339281038149</v>
+        <v>357599271272460</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C6" s="8">
-        <v>356377118228586</v>
+        <v>355964112882640</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,16 +879,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C7" s="8">
-        <v>357559441273442</v>
+        <v>355964112904048</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,16 +896,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8">
-        <v>356377117976904</v>
+        <v>358425755564181</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,16 +913,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
-        <v>357599102702461</v>
+        <v>358425754077029</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8">
-        <v>357599103979423</v>
+        <v>358425753975884</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,16 +947,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
-        <v>354340118375825</v>
+        <v>351251781275569</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,16 +964,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
-        <v>355963113712186</v>
+        <v>351251781346683</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,16 +981,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8">
-        <v>352611791656869</v>
+        <v>357398292885784</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8">
-        <v>351251781784727</v>
+        <v>355963113644504</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,26 +1015,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8">
-        <v>351251781787241</v>
+        <v>356035119474944</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="8">
+        <v>352620201376760</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1106,10 +1133,388 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <v>357599271272460</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355964112882640</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355964112904048</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8">
+        <v>358425755564181</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8">
+        <v>358425754077029</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8">
+        <v>358425753975884</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>351251781275569</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8">
+        <v>351251781346683</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8">
+        <v>357398292885784</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355963113644504</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8">
+        <v>356035119474944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="8">
+        <v>352620201376760</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,34 +1529,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1217,22 +1622,22 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="13">
         <v>357559441273442</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1502,12 +1907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,34 +1927,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1895,12 +2300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,34 +2321,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2057,16 +2462,16 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="13">
         <v>350053611344164</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -2267,12 +2672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,34 +2692,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2360,7 +2765,7 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8">
@@ -2440,7 +2845,7 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8">
@@ -2480,7 +2885,7 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="8">
@@ -2633,15 +3038,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,34 +3061,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2726,22 +3131,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>357599103409025</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3013,12 +3418,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,34 +3438,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3126,19 +3531,19 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>351805992618808</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3146,19 +3551,19 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <v>351805993112322</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3166,19 +3571,19 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>351805993003745</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3186,19 +3591,19 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>356377118938705</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3375,12 +3780,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,24 +3799,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
